--- a/pred_ohlcv/54/2019-10-18 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-18 HYC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="C2" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="D2" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="F2" t="n">
-        <v>8578.6566</v>
+        <v>7000</v>
       </c>
       <c r="G2" t="n">
-        <v>6.164833333333335</v>
+        <v>6.164500000000001</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="C3" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="D3" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F3" t="n">
-        <v>28228.8424</v>
+        <v>8578.6566</v>
       </c>
       <c r="G3" t="n">
-        <v>6.165333333333336</v>
+        <v>6.164833333333335</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="C4" t="n">
         <v>6.17</v>
@@ -469,15 +480,18 @@
         <v>6.17</v>
       </c>
       <c r="E4" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="F4" t="n">
-        <v>6019.1671</v>
+        <v>28228.8424</v>
       </c>
       <c r="G4" t="n">
-        <v>6.166166666666669</v>
+        <v>6.165333333333336</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>6.17</v>
       </c>
       <c r="F5" t="n">
-        <v>80000</v>
+        <v>6019.1671</v>
       </c>
       <c r="G5" t="n">
-        <v>6.166833333333336</v>
+        <v>6.166166666666669</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="C6" t="n">
-        <v>6.15</v>
+        <v>6.17</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="E6" t="n">
-        <v>6.15</v>
+        <v>6.17</v>
       </c>
       <c r="F6" t="n">
-        <v>135106.8955</v>
+        <v>80000</v>
       </c>
       <c r="G6" t="n">
-        <v>6.168000000000003</v>
+        <v>6.166833333333336</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="C7" t="n">
-        <v>6.04</v>
+        <v>6.15</v>
       </c>
       <c r="D7" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="E7" t="n">
-        <v>6.04</v>
+        <v>6.15</v>
       </c>
       <c r="F7" t="n">
-        <v>1440200.2292</v>
+        <v>135106.8955</v>
       </c>
       <c r="G7" t="n">
-        <v>6.16616666666667</v>
+        <v>6.168000000000003</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.06</v>
+        <v>6.16</v>
       </c>
       <c r="C8" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="D8" t="n">
-        <v>6.06</v>
+        <v>6.16</v>
       </c>
       <c r="E8" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="F8" t="n">
-        <v>414104.9092</v>
+        <v>1440200.2292</v>
       </c>
       <c r="G8" t="n">
-        <v>6.164000000000003</v>
+        <v>6.16616666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="C9" t="n">
-        <v>6.2</v>
+        <v>6.02</v>
       </c>
       <c r="D9" t="n">
-        <v>6.2</v>
+        <v>6.06</v>
       </c>
       <c r="E9" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="F9" t="n">
-        <v>1776233.3774</v>
+        <v>414104.9092</v>
       </c>
       <c r="G9" t="n">
-        <v>6.16466666666667</v>
+        <v>6.164000000000003</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.22</v>
+        <v>6.04</v>
       </c>
       <c r="C10" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="D10" t="n">
-        <v>6.23</v>
+        <v>6.2</v>
       </c>
       <c r="E10" t="n">
-        <v>6.17</v>
+        <v>6.01</v>
       </c>
       <c r="F10" t="n">
-        <v>255674.0971</v>
+        <v>1776233.3774</v>
       </c>
       <c r="G10" t="n">
-        <v>6.164833333333336</v>
+        <v>6.16466666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.21</v>
+        <v>6.22</v>
       </c>
       <c r="C11" t="n">
-        <v>6.21</v>
+        <v>6.17</v>
       </c>
       <c r="D11" t="n">
-        <v>6.21</v>
+        <v>6.23</v>
       </c>
       <c r="E11" t="n">
-        <v>6.21</v>
+        <v>6.17</v>
       </c>
       <c r="F11" t="n">
-        <v>111</v>
+        <v>255674.0971</v>
       </c>
       <c r="G11" t="n">
-        <v>6.165666666666668</v>
+        <v>6.164833333333336</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>6.21</v>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="G12" t="n">
-        <v>6.166500000000001</v>
+        <v>6.165666666666668</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="C13" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="D13" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="E13" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="F13" t="n">
-        <v>7670</v>
+        <v>200</v>
       </c>
       <c r="G13" t="n">
-        <v>6.167000000000001</v>
+        <v>6.166500000000001</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="C14" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="D14" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="E14" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="F14" t="n">
-        <v>133</v>
+        <v>7670</v>
       </c>
       <c r="G14" t="n">
-        <v>6.167666666666666</v>
+        <v>6.167000000000001</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>6.2</v>
       </c>
       <c r="F15" t="n">
-        <v>456</v>
+        <v>133</v>
       </c>
       <c r="G15" t="n">
-        <v>6.169166666666666</v>
+        <v>6.167666666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>6.2</v>
       </c>
       <c r="F16" t="n">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="G16" t="n">
-        <v>6.170666666666666</v>
+        <v>6.169166666666666</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>6.2</v>
       </c>
       <c r="F17" t="n">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="G17" t="n">
-        <v>6.172166666666666</v>
+        <v>6.170666666666666</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>6.2</v>
       </c>
       <c r="F18" t="n">
-        <v>52310.1612</v>
+        <v>527</v>
       </c>
       <c r="G18" t="n">
-        <v>6.172833333333331</v>
+        <v>6.172166666666666</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="C19" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="D19" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="E19" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="F19" t="n">
-        <v>14216.2597</v>
+        <v>52310.1612</v>
       </c>
       <c r="G19" t="n">
-        <v>6.173666666666665</v>
+        <v>6.172833333333331</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.12</v>
+        <v>6.19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="D20" t="n">
-        <v>6.12</v>
+        <v>6.19</v>
       </c>
       <c r="E20" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="F20" t="n">
-        <v>202182.4614</v>
+        <v>14216.2597</v>
       </c>
       <c r="G20" t="n">
-        <v>6.172999999999998</v>
+        <v>6.173666666666665</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="C21" t="n">
-        <v>6.16</v>
+        <v>6.07</v>
       </c>
       <c r="D21" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="E21" t="n">
-        <v>6.13</v>
+        <v>6.07</v>
       </c>
       <c r="F21" t="n">
-        <v>51800.6691</v>
+        <v>202182.4614</v>
       </c>
       <c r="G21" t="n">
-        <v>6.172666666666665</v>
+        <v>6.172999999999998</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.17</v>
+        <v>6.13</v>
       </c>
       <c r="C22" t="n">
         <v>6.16</v>
       </c>
       <c r="D22" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E22" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="F22" t="n">
-        <v>85616.69289999999</v>
+        <v>51800.6691</v>
       </c>
       <c r="G22" t="n">
-        <v>6.172333333333332</v>
+        <v>6.172666666666665</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>6.17</v>
       </c>
       <c r="C23" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="D23" t="n">
         <v>6.17</v>
       </c>
       <c r="E23" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="F23" t="n">
-        <v>227.739</v>
+        <v>85616.69289999999</v>
       </c>
       <c r="G23" t="n">
-        <v>6.172166666666666</v>
+        <v>6.172333333333332</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>6.17</v>
       </c>
       <c r="F24" t="n">
-        <v>19191.5721</v>
+        <v>227.739</v>
       </c>
       <c r="G24" t="n">
-        <v>6.171499999999999</v>
+        <v>6.172166666666666</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>6.17</v>
       </c>
       <c r="C25" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="D25" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="E25" t="n">
         <v>6.17</v>
       </c>
       <c r="F25" t="n">
-        <v>10607.0093</v>
+        <v>19191.5721</v>
       </c>
       <c r="G25" t="n">
-        <v>6.171</v>
+        <v>6.171499999999999</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>6.17</v>
       </c>
       <c r="C26" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="D26" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="E26" t="n">
-        <v>6.06</v>
+        <v>6.17</v>
       </c>
       <c r="F26" t="n">
-        <v>585960.2071999999</v>
+        <v>10607.0093</v>
       </c>
       <c r="G26" t="n">
-        <v>6.170833333333333</v>
+        <v>6.171</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>6.17</v>
       </c>
       <c r="C27" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="D27" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="E27" t="n">
-        <v>6.17</v>
+        <v>6.06</v>
       </c>
       <c r="F27" t="n">
-        <v>29806.9925</v>
+        <v>585960.2071999999</v>
       </c>
       <c r="G27" t="n">
-        <v>6.171833333333334</v>
+        <v>6.170833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>6.17</v>
       </c>
       <c r="F28" t="n">
-        <v>5916.0032</v>
+        <v>29806.9925</v>
       </c>
       <c r="G28" t="n">
-        <v>6.173</v>
+        <v>6.171833333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>6.17</v>
       </c>
       <c r="C29" t="n">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
       <c r="D29" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="E29" t="n">
-        <v>6.04</v>
+        <v>6.17</v>
       </c>
       <c r="F29" t="n">
-        <v>173381.599</v>
+        <v>5916.0032</v>
       </c>
       <c r="G29" t="n">
-        <v>6.170666666666667</v>
+        <v>6.173</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="C30" t="n">
-        <v>6.18</v>
+        <v>6.04</v>
       </c>
       <c r="D30" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="E30" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="F30" t="n">
-        <v>661909.8162999999</v>
+        <v>173381.599</v>
       </c>
       <c r="G30" t="n">
-        <v>6.170166666666668</v>
+        <v>6.170666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.17</v>
+        <v>6.09</v>
       </c>
       <c r="C31" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="D31" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="E31" t="n">
-        <v>6.17</v>
+        <v>6.03</v>
       </c>
       <c r="F31" t="n">
-        <v>28940</v>
+        <v>661909.8162999999</v>
       </c>
       <c r="G31" t="n">
-        <v>6.169500000000001</v>
+        <v>6.170166666666668</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="C32" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="D32" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="E32" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>28940</v>
       </c>
       <c r="G32" t="n">
-        <v>6.168000000000002</v>
+        <v>6.169500000000001</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>6.16</v>
       </c>
       <c r="F33" t="n">
-        <v>14460</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>6.166666666666669</v>
+        <v>6.168000000000002</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>6.16</v>
       </c>
       <c r="F34" t="n">
-        <v>6560.0487</v>
+        <v>14460</v>
       </c>
       <c r="G34" t="n">
-        <v>6.166166666666669</v>
+        <v>6.166666666666669</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="C35" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="D35" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="E35" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="F35" t="n">
-        <v>21226.8852</v>
+        <v>6560.0487</v>
       </c>
       <c r="G35" t="n">
-        <v>6.166000000000002</v>
+        <v>6.166166666666669</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="C36" t="n">
-        <v>6.01</v>
+        <v>6.1</v>
       </c>
       <c r="D36" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="E36" t="n">
-        <v>6.01</v>
+        <v>6.1</v>
       </c>
       <c r="F36" t="n">
-        <v>463773.1148</v>
+        <v>21226.8852</v>
       </c>
       <c r="G36" t="n">
-        <v>6.164333333333335</v>
+        <v>6.166000000000002</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="C37" t="n">
-        <v>6.15</v>
+        <v>6.01</v>
       </c>
       <c r="D37" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="E37" t="n">
-        <v>6.15</v>
+        <v>6.01</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>463773.1148</v>
       </c>
       <c r="G37" t="n">
-        <v>6.163833333333335</v>
+        <v>6.164333333333335</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="C38" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="D38" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E38" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="F38" t="n">
-        <v>81168.8311</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>6.163500000000002</v>
+        <v>6.163833333333335</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="C39" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="D39" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="E39" t="n">
-        <v>6.07</v>
+        <v>6.14</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>81168.8311</v>
       </c>
       <c r="G39" t="n">
-        <v>6.161666666666668</v>
+        <v>6.163500000000002</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>6.15</v>
       </c>
       <c r="C40" t="n">
-        <v>6.15</v>
+        <v>6.07</v>
       </c>
       <c r="D40" t="n">
         <v>6.15</v>
       </c>
       <c r="E40" t="n">
-        <v>6.15</v>
+        <v>6.07</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>6.160500000000001</v>
+        <v>6.161666666666668</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1428,18 +1550,21 @@
         <v>6.15</v>
       </c>
       <c r="D41" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E41" t="n">
         <v>6.15</v>
       </c>
       <c r="F41" t="n">
-        <v>81214.691558441</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>6.161500000000001</v>
+        <v>6.160500000000001</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1454,18 +1579,21 @@
         <v>6.15</v>
       </c>
       <c r="D42" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="E42" t="n">
         <v>6.15</v>
       </c>
       <c r="F42" t="n">
-        <v>252.6178</v>
+        <v>81214.691558441</v>
       </c>
       <c r="G42" t="n">
-        <v>6.162166666666667</v>
+        <v>6.161500000000001</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>6.15</v>
       </c>
       <c r="F43" t="n">
-        <v>239.9837</v>
+        <v>252.6178</v>
       </c>
       <c r="G43" t="n">
-        <v>6.162</v>
+        <v>6.162166666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>6.15</v>
       </c>
       <c r="F44" t="n">
-        <v>1494.8698</v>
+        <v>239.9837</v>
       </c>
       <c r="G44" t="n">
-        <v>6.161333333333332</v>
+        <v>6.162</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>6.15</v>
       </c>
       <c r="F45" t="n">
-        <v>3104.7152</v>
+        <v>1494.8698</v>
       </c>
       <c r="G45" t="n">
-        <v>6.160833333333332</v>
+        <v>6.161333333333332</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="C46" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="D46" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="E46" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="F46" t="n">
-        <v>16759.5362</v>
+        <v>3104.7152</v>
       </c>
       <c r="G46" t="n">
-        <v>6.159499999999999</v>
+        <v>6.160833333333332</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>6.1</v>
       </c>
       <c r="F47" t="n">
-        <v>42360</v>
+        <v>16759.5362</v>
       </c>
       <c r="G47" t="n">
-        <v>6.158166666666665</v>
+        <v>6.159499999999999</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="C48" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="D48" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="E48" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>42360</v>
       </c>
       <c r="G48" t="n">
-        <v>6.157333333333332</v>
+        <v>6.158166666666665</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C49" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="D49" t="n">
         <v>6.12</v>
       </c>
       <c r="E49" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F49" t="n">
-        <v>60596.5522</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
-        <v>6.156333333333333</v>
+        <v>6.157333333333332</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.08</v>
+        <v>6.11</v>
       </c>
       <c r="C50" t="n">
-        <v>6.04</v>
+        <v>6.11</v>
       </c>
       <c r="D50" t="n">
-        <v>6.08</v>
+        <v>6.12</v>
       </c>
       <c r="E50" t="n">
-        <v>6.04</v>
+        <v>6.11</v>
       </c>
       <c r="F50" t="n">
-        <v>80991.70480000001</v>
+        <v>60596.5522</v>
       </c>
       <c r="G50" t="n">
-        <v>6.154166666666666</v>
+        <v>6.156333333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="C51" t="n">
         <v>6.04</v>
       </c>
       <c r="D51" t="n">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="E51" t="n">
         <v>6.04</v>
       </c>
       <c r="F51" t="n">
-        <v>26647.5339</v>
+        <v>80991.70480000001</v>
       </c>
       <c r="G51" t="n">
-        <v>6.151999999999999</v>
+        <v>6.154166666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.13</v>
+        <v>6.05</v>
       </c>
       <c r="C52" t="n">
-        <v>6.13</v>
+        <v>6.04</v>
       </c>
       <c r="D52" t="n">
-        <v>6.13</v>
+        <v>6.05</v>
       </c>
       <c r="E52" t="n">
-        <v>6.13</v>
+        <v>6.04</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>26647.5339</v>
       </c>
       <c r="G52" t="n">
-        <v>6.151666666666666</v>
+        <v>6.151999999999999</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.17</v>
+        <v>6.13</v>
       </c>
       <c r="C53" t="n">
-        <v>6.18</v>
+        <v>6.13</v>
       </c>
       <c r="D53" t="n">
-        <v>6.18</v>
+        <v>6.13</v>
       </c>
       <c r="E53" t="n">
-        <v>6.17</v>
+        <v>6.13</v>
       </c>
       <c r="F53" t="n">
-        <v>68019.2556</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>6.151333333333333</v>
+        <v>6.151666666666666</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="C54" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="D54" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="E54" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="F54" t="n">
-        <v>55943.4069</v>
+        <v>68019.2556</v>
       </c>
       <c r="G54" t="n">
-        <v>6.149999999999999</v>
+        <v>6.151333333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="C55" t="n">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="D55" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="E55" t="n">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="F55" t="n">
-        <v>600105.0736</v>
+        <v>55943.4069</v>
       </c>
       <c r="G55" t="n">
-        <v>6.147166666666665</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.12</v>
+        <v>6.06</v>
       </c>
       <c r="C56" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="D56" t="n">
-        <v>6.12</v>
+        <v>6.06</v>
       </c>
       <c r="E56" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>600105.0736</v>
       </c>
       <c r="G56" t="n">
-        <v>6.145833333333332</v>
+        <v>6.147166666666665</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C57" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="D57" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="E57" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F57" t="n">
-        <v>47890.595688311</v>
+        <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>6.145166666666666</v>
+        <v>6.145833333333332</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="C58" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="D58" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="E58" t="n">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="F58" t="n">
-        <v>23950</v>
+        <v>47890.595688311</v>
       </c>
       <c r="G58" t="n">
-        <v>6.143</v>
+        <v>6.145166666666666</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>6.07</v>
       </c>
       <c r="C59" t="n">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="D59" t="n">
         <v>6.07</v>
       </c>
       <c r="E59" t="n">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="F59" t="n">
-        <v>36933.4538</v>
+        <v>23950</v>
       </c>
       <c r="G59" t="n">
-        <v>6.140166666666667</v>
+        <v>6.143</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.12</v>
+        <v>6.07</v>
       </c>
       <c r="C60" t="n">
-        <v>6.13</v>
+        <v>6.03</v>
       </c>
       <c r="D60" t="n">
-        <v>6.16</v>
+        <v>6.07</v>
       </c>
       <c r="E60" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="F60" t="n">
-        <v>90170.5462</v>
+        <v>36933.4538</v>
       </c>
       <c r="G60" t="n">
-        <v>6.139499999999999</v>
+        <v>6.140166666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C61" t="n">
         <v>6.13</v>
       </c>
       <c r="D61" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="E61" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F61" t="n">
-        <v>147045.774877487</v>
+        <v>90170.5462</v>
       </c>
       <c r="G61" t="n">
-        <v>6.138333333333333</v>
+        <v>6.139499999999999</v>
       </c>
       <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="C62" t="n">
-        <v>6.12</v>
+        <v>6.13</v>
       </c>
       <c r="D62" t="n">
-        <v>6.12</v>
+        <v>6.13</v>
       </c>
       <c r="E62" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="F62" t="n">
-        <v>498.3986</v>
+        <v>147045.774877487</v>
       </c>
       <c r="G62" t="n">
-        <v>6.137666666666665</v>
+        <v>6.138333333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>6.12</v>
       </c>
       <c r="F63" t="n">
-        <v>452.851</v>
+        <v>498.3986</v>
       </c>
       <c r="G63" t="n">
-        <v>6.136833333333332</v>
+        <v>6.137666666666665</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>6.12</v>
       </c>
       <c r="F64" t="n">
-        <v>95.7516</v>
+        <v>452.851</v>
       </c>
       <c r="G64" t="n">
-        <v>6.135999999999998</v>
+        <v>6.136833333333332</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.07</v>
+        <v>6.12</v>
       </c>
       <c r="C65" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="D65" t="n">
-        <v>6.07</v>
+        <v>6.12</v>
       </c>
       <c r="E65" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="F65" t="n">
-        <v>141043.4983</v>
+        <v>95.7516</v>
       </c>
       <c r="G65" t="n">
-        <v>6.133999999999999</v>
+        <v>6.135999999999998</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.09</v>
+        <v>6.07</v>
       </c>
       <c r="C66" t="n">
-        <v>6.09</v>
+        <v>6.05</v>
       </c>
       <c r="D66" t="n">
-        <v>6.09</v>
+        <v>6.07</v>
       </c>
       <c r="E66" t="n">
-        <v>6.09</v>
+        <v>6.05</v>
       </c>
       <c r="F66" t="n">
-        <v>4597.7011</v>
+        <v>141043.4983</v>
       </c>
       <c r="G66" t="n">
-        <v>6.132999999999998</v>
+        <v>6.133999999999999</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.04</v>
+        <v>6.09</v>
       </c>
       <c r="C67" t="n">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="D67" t="n">
-        <v>6.04</v>
+        <v>6.09</v>
       </c>
       <c r="E67" t="n">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="F67" t="n">
-        <v>63671.2294</v>
+        <v>4597.7011</v>
       </c>
       <c r="G67" t="n">
-        <v>6.132833333333331</v>
+        <v>6.132999999999998</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C68" t="n">
         <v>6.03</v>
       </c>
       <c r="D68" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E68" t="n">
         <v>6.03</v>
       </c>
       <c r="F68" t="n">
-        <v>51727.9318</v>
+        <v>63671.2294</v>
       </c>
       <c r="G68" t="n">
-        <v>6.132999999999997</v>
+        <v>6.132833333333331</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>6.03</v>
       </c>
       <c r="F69" t="n">
-        <v>74842.77220000001</v>
+        <v>51727.9318</v>
       </c>
       <c r="G69" t="n">
-        <v>6.130166666666664</v>
+        <v>6.132999999999997</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>6.03</v>
       </c>
       <c r="F70" t="n">
-        <v>10460.3648</v>
+        <v>74842.77220000001</v>
       </c>
       <c r="G70" t="n">
-        <v>6.12783333333333</v>
+        <v>6.130166666666664</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>6.03</v>
       </c>
       <c r="F71" t="n">
-        <v>9441.301799999999</v>
+        <v>10460.3648</v>
       </c>
       <c r="G71" t="n">
-        <v>6.12483333333333</v>
+        <v>6.12783333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="C72" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="D72" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="E72" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="F72" t="n">
-        <v>81054.24129999999</v>
+        <v>9441.301799999999</v>
       </c>
       <c r="G72" t="n">
-        <v>6.121666666666663</v>
+        <v>6.12483333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>6.02</v>
       </c>
       <c r="F73" t="n">
-        <v>261652.9557</v>
+        <v>81054.24129999999</v>
       </c>
       <c r="G73" t="n">
-        <v>6.118833333333329</v>
+        <v>6.121666666666663</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="C74" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="D74" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="E74" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="F74" t="n">
-        <v>62770.1061</v>
+        <v>261652.9557</v>
       </c>
       <c r="G74" t="n">
-        <v>6.115666666666663</v>
+        <v>6.118833333333329</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="C75" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="D75" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="E75" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="F75" t="n">
-        <v>2450.6414</v>
+        <v>62770.1061</v>
       </c>
       <c r="G75" t="n">
-        <v>6.113666666666663</v>
+        <v>6.115666666666663</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="C76" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D76" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="E76" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="F76" t="n">
-        <v>124050.5276</v>
+        <v>2450.6414</v>
       </c>
       <c r="G76" t="n">
-        <v>6.110499999999996</v>
+        <v>6.113666666666663</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D77" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="F77" t="n">
-        <v>64720.6398</v>
+        <v>124050.5276</v>
       </c>
       <c r="G77" t="n">
-        <v>6.107166666666663</v>
+        <v>6.110499999999996</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>6.01</v>
       </c>
       <c r="C78" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
         <v>6.01</v>
       </c>
       <c r="E78" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>132.3544</v>
+        <v>64720.6398</v>
       </c>
       <c r="G78" t="n">
-        <v>6.103999999999997</v>
+        <v>6.107166666666663</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="F79" t="n">
-        <v>72927.7004</v>
+        <v>132.3544</v>
       </c>
       <c r="G79" t="n">
-        <v>6.101333333333329</v>
+        <v>6.103999999999997</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>41886.1896</v>
+        <v>72927.7004</v>
       </c>
       <c r="G80" t="n">
-        <v>6.100333333333329</v>
+        <v>6.101333333333329</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>6.01</v>
       </c>
       <c r="F81" t="n">
-        <v>192347.5873</v>
+        <v>41886.1896</v>
       </c>
       <c r="G81" t="n">
-        <v>6.097833333333329</v>
+        <v>6.100333333333329</v>
       </c>
       <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>6.01</v>
       </c>
       <c r="C82" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="D82" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="E82" t="n">
         <v>6.01</v>
       </c>
       <c r="F82" t="n">
-        <v>185393.1964</v>
+        <v>192347.5873</v>
       </c>
       <c r="G82" t="n">
-        <v>6.096333333333328</v>
+        <v>6.097833333333329</v>
       </c>
       <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>6.01</v>
       </c>
       <c r="C83" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="D83" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="E83" t="n">
-        <v>5.98</v>
+        <v>6.01</v>
       </c>
       <c r="F83" t="n">
-        <v>1291900</v>
+        <v>185393.1964</v>
       </c>
       <c r="G83" t="n">
-        <v>6.093166666666662</v>
+        <v>6.096333333333328</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>6.01</v>
       </c>
       <c r="C84" t="n">
-        <v>6.01</v>
+        <v>5.98</v>
       </c>
       <c r="D84" t="n">
         <v>6.01</v>
       </c>
       <c r="E84" t="n">
-        <v>6.01</v>
+        <v>5.98</v>
       </c>
       <c r="F84" t="n">
-        <v>33600</v>
+        <v>1291900</v>
       </c>
       <c r="G84" t="n">
-        <v>6.090499999999994</v>
+        <v>6.093166666666662</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>6.01</v>
       </c>
       <c r="F85" t="n">
-        <v>16400</v>
+        <v>33600</v>
       </c>
       <c r="G85" t="n">
-        <v>6.087666666666661</v>
+        <v>6.090499999999994</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C86" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D86" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E86" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F86" t="n">
-        <v>237.3223</v>
+        <v>16400</v>
       </c>
       <c r="G86" t="n">
-        <v>6.08566666666666</v>
+        <v>6.087666666666661</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>6.05</v>
       </c>
       <c r="C87" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="D87" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="E87" t="n">
         <v>6.05</v>
       </c>
       <c r="F87" t="n">
-        <v>63490.099</v>
+        <v>237.3223</v>
       </c>
       <c r="G87" t="n">
-        <v>6.083666666666661</v>
+        <v>6.08566666666666</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="C88" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="D88" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="E88" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F88" t="n">
-        <v>28389.9005</v>
+        <v>63490.099</v>
       </c>
       <c r="G88" t="n">
-        <v>6.081333333333328</v>
+        <v>6.083666666666661</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="C89" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="D89" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="E89" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="F89" t="n">
-        <v>213624.909</v>
+        <v>28389.9005</v>
       </c>
       <c r="G89" t="n">
-        <v>6.080999999999993</v>
+        <v>6.081333333333328</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>6.01</v>
       </c>
       <c r="C90" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="D90" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="E90" t="n">
         <v>6.01</v>
       </c>
       <c r="F90" t="n">
-        <v>38095.3246</v>
+        <v>213624.909</v>
       </c>
       <c r="G90" t="n">
-        <v>6.07816666666666</v>
+        <v>6.080999999999993</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>6.01</v>
       </c>
       <c r="F91" t="n">
-        <v>39782.8757</v>
+        <v>38095.3246</v>
       </c>
       <c r="G91" t="n">
-        <v>6.075499999999993</v>
+        <v>6.07816666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>6.01</v>
       </c>
       <c r="F92" t="n">
-        <v>3521.6851</v>
+        <v>39782.8757</v>
       </c>
       <c r="G92" t="n">
-        <v>6.072999999999992</v>
+        <v>6.075499999999993</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C93" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D93" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E93" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F93" t="n">
-        <v>106.7933</v>
+        <v>3521.6851</v>
       </c>
       <c r="G93" t="n">
-        <v>6.071166666666659</v>
+        <v>6.072999999999992</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>6.05</v>
       </c>
       <c r="F94" t="n">
-        <v>22762.3742</v>
+        <v>106.7933</v>
       </c>
       <c r="G94" t="n">
-        <v>6.069333333333325</v>
+        <v>6.071166666666659</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="C95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="D95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="E95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="F95" t="n">
-        <v>202.5742</v>
+        <v>22762.3742</v>
       </c>
       <c r="G95" t="n">
-        <v>6.068666666666658</v>
+        <v>6.069333333333325</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>6.06</v>
       </c>
       <c r="F96" t="n">
-        <v>23870.2337</v>
+        <v>202.5742</v>
       </c>
       <c r="G96" t="n">
-        <v>6.069499999999992</v>
+        <v>6.068666666666658</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="C97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="D97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="E97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="F97" t="n">
-        <v>28077.3383</v>
+        <v>23870.2337</v>
       </c>
       <c r="G97" t="n">
-        <v>6.068166666666658</v>
+        <v>6.069499999999992</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="C98" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D98" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E98" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="F98" t="n">
-        <v>12060</v>
+        <v>28077.3383</v>
       </c>
       <c r="G98" t="n">
-        <v>6.066833333333324</v>
+        <v>6.068166666666658</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="C99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="D99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="E99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="F99" t="n">
-        <v>37900.2765</v>
+        <v>12060</v>
       </c>
       <c r="G99" t="n">
-        <v>6.067166666666657</v>
+        <v>6.066833333333324</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>6.09</v>
       </c>
       <c r="F100" t="n">
-        <v>341102.4891</v>
+        <v>37900.2765</v>
       </c>
       <c r="G100" t="n">
-        <v>6.066166666666658</v>
+        <v>6.067166666666657</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>6.09</v>
       </c>
       <c r="F101" t="n">
-        <v>50035.8878</v>
+        <v>341102.4891</v>
       </c>
       <c r="G101" t="n">
-        <v>6.065166666666657</v>
+        <v>6.066166666666658</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="C102" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="D102" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="E102" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="F102" t="n">
-        <v>139.377</v>
+        <v>50035.8878</v>
       </c>
       <c r="G102" t="n">
-        <v>6.064333333333325</v>
+        <v>6.065166666666657</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="C103" t="n">
-        <v>5.99</v>
+        <v>6.1</v>
       </c>
       <c r="D103" t="n">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="E103" t="n">
-        <v>5.99</v>
+        <v>6.1</v>
       </c>
       <c r="F103" t="n">
-        <v>760108.3975</v>
+        <v>139.377</v>
       </c>
       <c r="G103" t="n">
-        <v>6.061666666666659</v>
+        <v>6.064333333333325</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>6.05</v>
       </c>
       <c r="C104" t="n">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="D104" t="n">
-        <v>6.05</v>
+        <v>6.09</v>
       </c>
       <c r="E104" t="n">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="F104" t="n">
-        <v>166389.351</v>
+        <v>760108.3975</v>
       </c>
       <c r="G104" t="n">
-        <v>6.059999999999993</v>
+        <v>6.061666666666659</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="F105" t="n">
-        <v>8000</v>
+        <v>166389.351</v>
       </c>
       <c r="G105" t="n">
-        <v>6.057499999999993</v>
+        <v>6.059999999999993</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>113.4431</v>
+        <v>8000</v>
       </c>
       <c r="G106" t="n">
-        <v>6.056999999999992</v>
+        <v>6.057499999999993</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="C107" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="D107" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="E107" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="F107" t="n">
-        <v>11</v>
+        <v>113.4431</v>
       </c>
       <c r="G107" t="n">
-        <v>6.055166666666659</v>
+        <v>6.056999999999992</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="C108" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="D108" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="E108" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="F108" t="n">
-        <v>101.9407</v>
+        <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>6.054499999999992</v>
+        <v>6.055166666666659</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="C109" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D109" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="E109" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="F109" t="n">
-        <v>89974.1234</v>
+        <v>101.9407</v>
       </c>
       <c r="G109" t="n">
-        <v>6.052833333333325</v>
+        <v>6.054499999999992</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="C110" t="n">
-        <v>6.11</v>
+        <v>6.01</v>
       </c>
       <c r="D110" t="n">
-        <v>6.11</v>
+        <v>6.01</v>
       </c>
       <c r="E110" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="F110" t="n">
-        <v>200896.3285</v>
+        <v>89974.1234</v>
       </c>
       <c r="G110" t="n">
-        <v>6.053999999999991</v>
+        <v>6.052833333333325</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.13</v>
+        <v>6.07</v>
       </c>
       <c r="C111" t="n">
-        <v>6.22</v>
+        <v>6.11</v>
       </c>
       <c r="D111" t="n">
-        <v>6.22</v>
+        <v>6.11</v>
       </c>
       <c r="E111" t="n">
-        <v>6.13</v>
+        <v>6.07</v>
       </c>
       <c r="F111" t="n">
-        <v>72170.0819</v>
+        <v>200896.3285</v>
       </c>
       <c r="G111" t="n">
-        <v>6.056999999999992</v>
+        <v>6.053999999999991</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="C112" t="n">
-        <v>6.28</v>
+        <v>6.22</v>
       </c>
       <c r="D112" t="n">
-        <v>6.28</v>
+        <v>6.22</v>
       </c>
       <c r="E112" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="F112" t="n">
-        <v>733561.2747</v>
+        <v>72170.0819</v>
       </c>
       <c r="G112" t="n">
-        <v>6.059499999999991</v>
+        <v>6.056999999999992</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,545 +3632,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C113" t="n">
         <v>6.28</v>
       </c>
-      <c r="C113" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D113" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="E113" t="n">
-        <v>6.28</v>
+        <v>6.2</v>
       </c>
       <c r="F113" t="n">
-        <v>5000</v>
+        <v>733561.2747</v>
       </c>
       <c r="G113" t="n">
-        <v>6.061499999999992</v>
+        <v>6.059499999999991</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="C114" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="F114" t="n">
-        <v>171.0866</v>
-      </c>
-      <c r="G114" t="n">
-        <v>6.064999999999992</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="C115" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E115" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="F115" t="n">
-        <v>130580.1489</v>
-      </c>
-      <c r="G115" t="n">
-        <v>6.069166666666659</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F116" t="n">
-        <v>221.3492</v>
-      </c>
-      <c r="G116" t="n">
-        <v>6.072166666666659</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="C117" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E117" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="F117" t="n">
-        <v>8615.558199999999</v>
-      </c>
-      <c r="G117" t="n">
-        <v>6.074333333333326</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C118" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D118" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E118" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F118" t="n">
-        <v>11</v>
-      </c>
-      <c r="G118" t="n">
-        <v>6.077999999999992</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C119" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D119" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E119" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F119" t="n">
-        <v>300</v>
-      </c>
-      <c r="G119" t="n">
-        <v>6.082333333333326</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="C120" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D120" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="F120" t="n">
-        <v>7493.48</v>
-      </c>
-      <c r="G120" t="n">
-        <v>6.084999999999994</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C121" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F121" t="n">
-        <v>8291</v>
-      </c>
-      <c r="G121" t="n">
-        <v>6.087833333333327</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C122" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E122" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>300</v>
-      </c>
-      <c r="G122" t="n">
-        <v>6.090833333333327</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C123" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D123" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="F123" t="n">
-        <v>295350.6266</v>
-      </c>
-      <c r="G123" t="n">
-        <v>6.093666666666661</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="D124" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="F124" t="n">
-        <v>11923.1935</v>
-      </c>
-      <c r="G124" t="n">
-        <v>6.096166666666661</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="C125" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="D125" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="F125" t="n">
-        <v>47197.2926</v>
-      </c>
-      <c r="G125" t="n">
-        <v>6.099999999999993</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C126" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D126" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="F126" t="n">
-        <v>581148.4603</v>
-      </c>
-      <c r="G126" t="n">
-        <v>6.103333333333327</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="C127" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D127" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E127" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="F127" t="n">
-        <v>363011</v>
-      </c>
-      <c r="G127" t="n">
-        <v>6.107666666666661</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C128" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D128" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E128" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F128" t="n">
-        <v>93234</v>
-      </c>
-      <c r="G128" t="n">
-        <v>6.112166666666663</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>893</v>
-      </c>
-      <c r="G129" t="n">
-        <v>6.116666666666663</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="F130" t="n">
-        <v>100033</v>
-      </c>
-      <c r="G130" t="n">
-        <v>6.121166666666664</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C131" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E131" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F131" t="n">
-        <v>246</v>
-      </c>
-      <c r="G131" t="n">
-        <v>6.125499999999998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C132" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D132" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E132" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>112064.1211</v>
-      </c>
-      <c r="G132" t="n">
-        <v>6.129999999999998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="D133" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E133" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F133" t="n">
-        <v>200022</v>
-      </c>
-      <c r="G133" t="n">
-        <v>6.134333333333331</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
+      <c r="I113" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
